--- a/va_facility_data_2025-02-20/Eastern Dutchess VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Eastern%20Dutchess%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Eastern Dutchess VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Eastern%20Dutchess%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R6aeffb16b89e4ca6b759b5308418afaa"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R80969d05bb484ef297c19c7bcc36563a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R57f3cc8d930244598cde020422826725"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rcf6c4c8b259a4faead593fa83fa35680"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1bc7ac1dbb214e08a3ff63ff5942a8b3"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3348401582aa49308ffeae483c0b21f4"/>
   </x:sheets>
 </x:workbook>
 </file>
